--- a/tmp_client/doc/TMP_EIT_suites/analysis_00_ta_engine.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/analysis_00_ta_engine.xlsx
@@ -21,15 +21,15 @@
   </definedNames>
   <calcPr calcId="122211"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="815" activeSheetId="1"/>
+    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
     <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
-    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
-    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="815" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="417">
   <si>
     <t>[suite_info]</t>
   </si>
@@ -1152,9 +1152,6 @@
     <t>SDC_cases/01_create_clock/get_pins_02</t>
   </si>
   <si>
-    <t>SDC_cases/01_create_clock/get_pins_03</t>
-  </si>
-  <si>
     <t>SDC_cases/01_create_clock/get_ports_01</t>
   </si>
   <si>
@@ -1176,9 +1173,6 @@
     <t>SDC_cases/01_create_clock/get_ports_07</t>
   </si>
   <si>
-    <t>SDC_cases/01_create_clock/get_ports_08</t>
-  </si>
-  <si>
     <t>SDC_cases/01_create_clock/get_ports_09</t>
   </si>
   <si>
@@ -1198,9 +1192,6 @@
   </si>
   <si>
     <t>SDC_cases/01_create_clock/get_ports_16</t>
-  </si>
-  <si>
-    <t>SDC_cases/01_create_clock/get_ports_17</t>
   </si>
   <si>
     <t>SDC_cases/01_create_clock/get_ports_18</t>
@@ -1477,15 +1468,6 @@
   </si>
   <si>
     <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
   </si>
   <si>
     <t>1</t>
@@ -2734,6 +2716,49 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="44" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2753,49 +2778,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="44" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5203,7 +5185,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{8EED1B89-290A-41E3-93EA-E3BF9B1F6763}" diskRevisions="1" revisionId="2726" version="8">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{EA20519E-58CC-44CB-BB76-30D388FA6F33}" diskRevisions="1" revisionId="2764" version="10">
   <header guid="{44EB38A2-BBD0-4FEB-BE52-D705D470D324}" dateTime="2017-10-18T14:19:16" maxSheetId="5" userName="Jason Wang" r:id="rId1">
     <sheetIdMap count="4">
       <sheetId val="1"/>
@@ -5268,11 +5250,434 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
+  <header guid="{EDDCE620-BE92-4629-8F5B-FB6E02D2FB1A}" dateTime="2017-10-20T13:21:29" maxSheetId="5" userName="Jason Wang" r:id="rId9" minRId="2727" maxRId="2729">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{EA20519E-58CC-44CB-BB76-30D388FA6F33}" dateTime="2017-10-20T13:21:51" maxSheetId="5" userName="Jason Wang" r:id="rId10" minRId="2731" maxRId="2763">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="2731" sId="2">
+    <oc r="A49" t="inlineStr">
+      <is>
+        <t>48</t>
+      </is>
+    </oc>
+    <nc r="A49" t="inlineStr">
+      <is>
+        <t>47</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2732" sId="2">
+    <oc r="A50" t="inlineStr">
+      <is>
+        <t>49</t>
+      </is>
+    </oc>
+    <nc r="A50" t="inlineStr">
+      <is>
+        <t>48</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2733" sId="2">
+    <oc r="A51" t="inlineStr">
+      <is>
+        <t>50</t>
+      </is>
+    </oc>
+    <nc r="A51" t="inlineStr">
+      <is>
+        <t>49</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2734" sId="2">
+    <oc r="A52" t="inlineStr">
+      <is>
+        <t>51</t>
+      </is>
+    </oc>
+    <nc r="A52" t="inlineStr">
+      <is>
+        <t>50</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2735" sId="2">
+    <oc r="A53" t="inlineStr">
+      <is>
+        <t>52</t>
+      </is>
+    </oc>
+    <nc r="A53" t="inlineStr">
+      <is>
+        <t>51</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2736" sId="2">
+    <oc r="A54" t="inlineStr">
+      <is>
+        <t>53</t>
+      </is>
+    </oc>
+    <nc r="A54" t="inlineStr">
+      <is>
+        <t>52</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2737" sId="2">
+    <oc r="A55" t="inlineStr">
+      <is>
+        <t>54</t>
+      </is>
+    </oc>
+    <nc r="A55" t="inlineStr">
+      <is>
+        <t>53</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2738" sId="2">
+    <oc r="A56" t="inlineStr">
+      <is>
+        <t>56</t>
+      </is>
+    </oc>
+    <nc r="A56" t="inlineStr">
+      <is>
+        <t>54</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2739" sId="2">
+    <oc r="A57" t="inlineStr">
+      <is>
+        <t>57</t>
+      </is>
+    </oc>
+    <nc r="A57" t="inlineStr">
+      <is>
+        <t>55</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2740" sId="2">
+    <oc r="A58" t="inlineStr">
+      <is>
+        <t>58</t>
+      </is>
+    </oc>
+    <nc r="A58" t="inlineStr">
+      <is>
+        <t>56</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2741" sId="2">
+    <oc r="A59" t="inlineStr">
+      <is>
+        <t>59</t>
+      </is>
+    </oc>
+    <nc r="A59" t="inlineStr">
+      <is>
+        <t>57</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2742" sId="2">
+    <oc r="A60" t="inlineStr">
+      <is>
+        <t>60</t>
+      </is>
+    </oc>
+    <nc r="A60" t="inlineStr">
+      <is>
+        <t>58</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2743" sId="2">
+    <oc r="A61" t="inlineStr">
+      <is>
+        <t>61</t>
+      </is>
+    </oc>
+    <nc r="A61" t="inlineStr">
+      <is>
+        <t>59</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2744" sId="2">
+    <oc r="A62" t="inlineStr">
+      <is>
+        <t>62</t>
+      </is>
+    </oc>
+    <nc r="A62" t="inlineStr">
+      <is>
+        <t>60</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2745" sId="2">
+    <oc r="A63" t="inlineStr">
+      <is>
+        <t>64</t>
+      </is>
+    </oc>
+    <nc r="A63" t="inlineStr">
+      <is>
+        <t>61</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2746" sId="2">
+    <oc r="A64" t="inlineStr">
+      <is>
+        <t>65</t>
+      </is>
+    </oc>
+    <nc r="A64" t="inlineStr">
+      <is>
+        <t>62</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2747" sId="2">
+    <oc r="A65" t="inlineStr">
+      <is>
+        <t>66</t>
+      </is>
+    </oc>
+    <nc r="A65" t="inlineStr">
+      <is>
+        <t>63</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2748" sId="2">
+    <oc r="A66" t="inlineStr">
+      <is>
+        <t>67</t>
+      </is>
+    </oc>
+    <nc r="A66" t="inlineStr">
+      <is>
+        <t>64</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2749" sId="2">
+    <oc r="A67" t="inlineStr">
+      <is>
+        <t>68</t>
+      </is>
+    </oc>
+    <nc r="A67" t="inlineStr">
+      <is>
+        <t>65</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2750" sId="2">
+    <oc r="A68" t="inlineStr">
+      <is>
+        <t>69</t>
+      </is>
+    </oc>
+    <nc r="A68" t="inlineStr">
+      <is>
+        <t>66</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2751" sId="2">
+    <oc r="A69" t="inlineStr">
+      <is>
+        <t>70</t>
+      </is>
+    </oc>
+    <nc r="A69" t="inlineStr">
+      <is>
+        <t>67</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2752" sId="2">
+    <oc r="A70" t="inlineStr">
+      <is>
+        <t>71</t>
+      </is>
+    </oc>
+    <nc r="A70" t="inlineStr">
+      <is>
+        <t>68</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2753" sId="2">
+    <oc r="A71" t="inlineStr">
+      <is>
+        <t>72</t>
+      </is>
+    </oc>
+    <nc r="A71" t="inlineStr">
+      <is>
+        <t>69</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2754" sId="2">
+    <oc r="A72" t="inlineStr">
+      <is>
+        <t>73</t>
+      </is>
+    </oc>
+    <nc r="A72" t="inlineStr">
+      <is>
+        <t>70</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2755" sId="2">
+    <oc r="A73" t="inlineStr">
+      <is>
+        <t>74</t>
+      </is>
+    </oc>
+    <nc r="A73" t="inlineStr">
+      <is>
+        <t>71</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2756" sId="2">
+    <oc r="A74" t="inlineStr">
+      <is>
+        <t>75</t>
+      </is>
+    </oc>
+    <nc r="A74" t="inlineStr">
+      <is>
+        <t>72</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2757" sId="2">
+    <oc r="A75" t="inlineStr">
+      <is>
+        <t>76</t>
+      </is>
+    </oc>
+    <nc r="A75" t="inlineStr">
+      <is>
+        <t>73</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2758" sId="2">
+    <oc r="A76" t="inlineStr">
+      <is>
+        <t>77</t>
+      </is>
+    </oc>
+    <nc r="A76" t="inlineStr">
+      <is>
+        <t>74</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2759" sId="2">
+    <oc r="A77" t="inlineStr">
+      <is>
+        <t>78</t>
+      </is>
+    </oc>
+    <nc r="A77" t="inlineStr">
+      <is>
+        <t>75</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2760" sId="2">
+    <oc r="A78" t="inlineStr">
+      <is>
+        <t>79</t>
+      </is>
+    </oc>
+    <nc r="A78" t="inlineStr">
+      <is>
+        <t>76</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2761" sId="2">
+    <oc r="A79" t="inlineStr">
+      <is>
+        <t>80</t>
+      </is>
+    </oc>
+    <nc r="A79" t="inlineStr">
+      <is>
+        <t>77</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2762" sId="2">
+    <oc r="A80" t="inlineStr">
+      <is>
+        <t>81</t>
+      </is>
+    </oc>
+    <nc r="A80" t="inlineStr">
+      <is>
+        <t>78</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2763" sId="2">
+    <oc r="A81" t="inlineStr">
+      <is>
+        <t>82</t>
+      </is>
+    </oc>
+    <nc r="A81" t="inlineStr">
+      <is>
+        <t>79</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AB$2</formula>
+    <oldFormula>case!$A$2:$AB$2</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
+</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37938,6 +38343,146 @@
       </is>
     </nc>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="2727" sId="2" ref="A49:XFD49" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A49:XFD49" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+        <protection locked="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2">
+      <nc r="A49" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="D49" t="inlineStr">
+        <is>
+          <t>create_clock</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="E49" t="inlineStr">
+        <is>
+          <t>SDC_cases/01_create_clock/get_pins_03</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="I49" t="inlineStr">
+        <is>
+          <t>Functionality</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="J49" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="2728" sId="2" ref="A56:XFD56" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A56:XFD56" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+        <protection locked="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2">
+      <nc r="A56" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="D56" t="inlineStr">
+        <is>
+          <t>create_clock</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="E56" t="inlineStr">
+        <is>
+          <t>SDC_cases/01_create_clock/get_ports_08</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="I56" t="inlineStr">
+        <is>
+          <t>Functionality</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="J56" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="2729" sId="2" ref="A63:XFD63" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A63:XFD63" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+        <protection locked="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2">
+      <nc r="A63" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="D63" t="inlineStr">
+        <is>
+          <t>create_clock</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="E63" t="inlineStr">
+        <is>
+          <t>SDC_cases/01_create_clock/get_ports_17</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="I63" t="inlineStr">
+        <is>
+          <t>Functionality</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="J63" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AB$2</formula>
+    <oldFormula>case!$A$2:$AB$2</oldFormula>
+  </rdn>
+  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
 </revisions>
 </file>
 
@@ -38297,7 +38842,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -38345,8 +38890,7 @@
   </sheetData>
   <sheetProtection password="DD9F" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="B35" sqref="B35"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -38355,8 +38899,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
-      <selection activeCell="B9" sqref="B9"/>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="B35" sqref="B35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -38369,14 +38913,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB84"/>
+  <dimension ref="A1:AB81"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -38528,7 +39072,7 @@
     </row>
     <row r="3" spans="1:28" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>256</v>
@@ -38545,7 +39089,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>256</v>
@@ -38562,7 +39106,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>256</v>
@@ -38579,7 +39123,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>256</v>
@@ -38596,7 +39140,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>256</v>
@@ -38630,7 +39174,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>256</v>
@@ -38647,7 +39191,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>256</v>
@@ -38681,7 +39225,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>256</v>
@@ -38698,7 +39242,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>256</v>
@@ -38715,7 +39259,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>256</v>
@@ -38732,7 +39276,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>256</v>
@@ -38749,7 +39293,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>256</v>
@@ -38766,7 +39310,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>256</v>
@@ -38783,7 +39327,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>256</v>
@@ -38800,7 +39344,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>256</v>
@@ -38817,7 +39361,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>256</v>
@@ -38834,7 +39378,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>256</v>
@@ -38851,7 +39395,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>256</v>
@@ -38868,7 +39412,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>256</v>
@@ -38885,7 +39429,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>256</v>
@@ -38902,7 +39446,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>279</v>
@@ -38919,7 +39463,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>279</v>
@@ -38936,7 +39480,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="18" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>279</v>
@@ -38953,7 +39497,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="18" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>279</v>
@@ -38970,7 +39514,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="18" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>279</v>
@@ -38987,7 +39531,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>279</v>
@@ -39004,7 +39548,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="18" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>279</v>
@@ -39021,7 +39565,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="18" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>279</v>
@@ -39038,7 +39582,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="18" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>279</v>
@@ -39055,7 +39599,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>279</v>
@@ -39072,7 +39616,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>279</v>
@@ -39089,7 +39633,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>279</v>
@@ -39106,7 +39650,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="18" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>279</v>
@@ -39123,7 +39667,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="18" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>279</v>
@@ -39140,7 +39684,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="18" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>279</v>
@@ -39157,7 +39701,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>279</v>
@@ -39174,7 +39718,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="18" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>279</v>
@@ -39191,7 +39735,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="18" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>279</v>
@@ -39208,7 +39752,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="18" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>279</v>
@@ -39225,7 +39769,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>279</v>
@@ -39242,7 +39786,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>279</v>
@@ -39259,7 +39803,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="18" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>279</v>
@@ -39276,7 +39820,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="18" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>302</v>
@@ -39293,7 +39837,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>302</v>
@@ -39310,7 +39854,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="18" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>302</v>
@@ -39327,7 +39871,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>302</v>
@@ -39344,7 +39888,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="18" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>302</v>
@@ -39361,7 +39905,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="18" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>302</v>
@@ -39378,7 +39922,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="18" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>302</v>
@@ -39395,7 +39939,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="18" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>302</v>
@@ -39412,7 +39956,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="18" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>302</v>
@@ -39429,7 +39973,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="18" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>302</v>
@@ -39446,7 +39990,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="18" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>302</v>
@@ -39463,7 +40007,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="18" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>302</v>
@@ -39480,7 +40024,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="18" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>302</v>
@@ -39497,7 +40041,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="18" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>302</v>
@@ -39514,7 +40058,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="18" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>302</v>
@@ -39531,7 +40075,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="18" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>302</v>
@@ -39548,7 +40092,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="18" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D63" s="18" t="s">
         <v>302</v>
@@ -39565,7 +40109,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="18" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>302</v>
@@ -39582,7 +40126,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="18" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>302</v>
@@ -39599,7 +40143,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="18" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>302</v>
@@ -39616,7 +40160,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>302</v>
@@ -39633,7 +40177,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="18" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>302</v>
@@ -39650,13 +40194,13 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="18" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I69" s="18" t="s">
         <v>226</v>
@@ -39667,13 +40211,13 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="18" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I70" s="18" t="s">
         <v>226</v>
@@ -39684,13 +40228,13 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="18" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I71" s="18" t="s">
         <v>226</v>
@@ -39701,10 +40245,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="18" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E72" s="18" t="s">
         <v>329</v>
@@ -39718,10 +40262,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="18" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E73" s="18" t="s">
         <v>330</v>
@@ -39735,10 +40279,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="18" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E74" s="18" t="s">
         <v>331</v>
@@ -39752,10 +40296,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" s="18" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E75" s="18" t="s">
         <v>332</v>
@@ -39769,10 +40313,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" s="18" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E76" s="18" t="s">
         <v>333</v>
@@ -39786,10 +40330,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" s="18" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E77" s="18" t="s">
         <v>334</v>
@@ -39803,10 +40347,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" s="18" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E78" s="18" t="s">
         <v>335</v>
@@ -39820,10 +40364,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" s="18" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E79" s="18" t="s">
         <v>336</v>
@@ -39837,10 +40381,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="18" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E80" s="18" t="s">
         <v>337</v>
@@ -39854,10 +40398,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" s="18" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E81" s="18" t="s">
         <v>338</v>
@@ -39866,57 +40410,6 @@
         <v>226</v>
       </c>
       <c r="J81" s="18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A82" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="E82" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="I82" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="J82" s="18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A83" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="I83" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="J83" s="18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A84" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="I84" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="J84" s="18" t="s">
         <v>236</v>
       </c>
     </row>
@@ -39924,12 +40417,12 @@
   <sheetProtection password="DD9F" sheet="1" objects="1" scenarios="1" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A2:AB2"/>
   <customSheetViews>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="B78" sqref="B78"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:Y2"/>
+      <autoFilter ref="A2:AB2"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -39938,12 +40431,12 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
       <autoFilter ref="A2:Y2"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C87" sqref="C87"/>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A2:AB2"/>
+      <autoFilter ref="A2:Y2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -40069,17 +40562,17 @@
       <c r="E109" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F109" s="55" t="s">
+      <c r="F109" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="G109" s="56"/>
-      <c r="H109" s="56"/>
-      <c r="I109" s="56"/>
-      <c r="J109" s="56"/>
-      <c r="K109" s="56"/>
-      <c r="L109" s="56"/>
-      <c r="M109" s="56"/>
-      <c r="N109" s="57"/>
+      <c r="G109" s="71"/>
+      <c r="H109" s="71"/>
+      <c r="I109" s="71"/>
+      <c r="J109" s="71"/>
+      <c r="K109" s="71"/>
+      <c r="L109" s="71"/>
+      <c r="M109" s="71"/>
+      <c r="N109" s="72"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A110" s="6" t="s">
@@ -40859,7 +41352,7 @@
       <c r="A142" s="43">
         <v>1</v>
       </c>
-      <c r="B142" s="58" t="s">
+      <c r="B142" s="73" t="s">
         <v>125</v>
       </c>
       <c r="C142" s="41" t="s">
@@ -40885,7 +41378,7 @@
       <c r="A143" s="43">
         <v>2</v>
       </c>
-      <c r="B143" s="59"/>
+      <c r="B143" s="74"/>
       <c r="C143" s="41" t="s">
         <v>131</v>
       </c>
@@ -40907,7 +41400,7 @@
       <c r="A144" s="43">
         <v>3</v>
       </c>
-      <c r="B144" s="59"/>
+      <c r="B144" s="74"/>
       <c r="C144" s="41" t="s">
         <v>9</v>
       </c>
@@ -40925,7 +41418,7 @@
       <c r="A145" s="43">
         <v>4</v>
       </c>
-      <c r="B145" s="59"/>
+      <c r="B145" s="74"/>
       <c r="C145" s="41" t="s">
         <v>39</v>
       </c>
@@ -40945,7 +41438,7 @@
       <c r="A146" s="43">
         <v>5</v>
       </c>
-      <c r="B146" s="59"/>
+      <c r="B146" s="74"/>
       <c r="C146" s="41" t="s">
         <v>133</v>
       </c>
@@ -40967,7 +41460,7 @@
       <c r="A147" s="43">
         <v>6</v>
       </c>
-      <c r="B147" s="59"/>
+      <c r="B147" s="74"/>
       <c r="C147" s="41" t="s">
         <v>42</v>
       </c>
@@ -40989,7 +41482,7 @@
       <c r="A148" s="43">
         <v>7</v>
       </c>
-      <c r="B148" s="59"/>
+      <c r="B148" s="74"/>
       <c r="C148" s="41" t="s">
         <v>57</v>
       </c>
@@ -41013,7 +41506,7 @@
       <c r="A149" s="43">
         <v>8</v>
       </c>
-      <c r="B149" s="60"/>
+      <c r="B149" s="75"/>
       <c r="C149" s="41" t="s">
         <v>140</v>
       </c>
@@ -41081,7 +41574,7 @@
       <c r="A152" s="43">
         <v>11</v>
       </c>
-      <c r="B152" s="61" t="s">
+      <c r="B152" s="76" t="s">
         <v>147</v>
       </c>
       <c r="C152" s="41" t="s">
@@ -41105,7 +41598,7 @@
       <c r="A153" s="43">
         <v>12</v>
       </c>
-      <c r="B153" s="62"/>
+      <c r="B153" s="60"/>
       <c r="C153" s="41" t="s">
         <v>150</v>
       </c>
@@ -41469,7 +41962,7 @@
       <c r="A171" s="44">
         <v>30</v>
       </c>
-      <c r="B171" s="63"/>
+      <c r="B171" s="55"/>
       <c r="C171" s="42"/>
       <c r="D171" s="42"/>
       <c r="E171" s="42"/>
@@ -41500,11 +41993,11 @@
       <c r="B184" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C184" s="64" t="s">
+      <c r="C184" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D184" s="64"/>
-      <c r="E184" s="64"/>
+      <c r="D184" s="66"/>
+      <c r="E184" s="66"/>
       <c r="F184" s="36" t="s">
         <v>44</v>
       </c>
@@ -41519,11 +42012,11 @@
       <c r="B185" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="C185" s="65" t="s">
+      <c r="C185" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="D185" s="65"/>
-      <c r="E185" s="65"/>
+      <c r="D185" s="67"/>
+      <c r="E185" s="67"/>
       <c r="F185" s="41" t="s">
         <v>191</v>
       </c>
@@ -41534,11 +42027,11 @@
     <row r="186" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A186" s="54"/>
       <c r="B186" s="54"/>
-      <c r="C186" s="66" t="s">
+      <c r="C186" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="D186" s="66"/>
-      <c r="E186" s="66"/>
+      <c r="D186" s="68"/>
+      <c r="E186" s="68"/>
       <c r="F186" s="41" t="s">
         <v>193</v>
       </c>
@@ -41551,11 +42044,11 @@
       <c r="B187" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="C187" s="67" t="s">
+      <c r="C187" s="69" t="s">
         <v>195</v>
       </c>
-      <c r="D187" s="67"/>
-      <c r="E187" s="67"/>
+      <c r="D187" s="69"/>
+      <c r="E187" s="69"/>
       <c r="F187" s="41" t="s">
         <v>191</v>
       </c>
@@ -41566,11 +42059,11 @@
     <row r="188" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A188" s="54"/>
       <c r="B188" s="54"/>
-      <c r="C188" s="67" t="s">
+      <c r="C188" s="69" t="s">
         <v>195</v>
       </c>
-      <c r="D188" s="67"/>
-      <c r="E188" s="67"/>
+      <c r="D188" s="69"/>
+      <c r="E188" s="69"/>
       <c r="F188" s="41" t="s">
         <v>193</v>
       </c>
@@ -41579,7 +42072,7 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A189" s="68" t="s">
+      <c r="A189" s="56" t="s">
         <v>196</v>
       </c>
       <c r="B189" s="54" t="s">
@@ -41598,7 +42091,7 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A190" s="68"/>
+      <c r="A190" s="56"/>
       <c r="B190" s="54"/>
       <c r="C190" s="54" t="s">
         <v>47</v>
@@ -41613,7 +42106,7 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A191" s="68"/>
+      <c r="A191" s="56"/>
       <c r="B191" s="54" t="s">
         <v>198</v>
       </c>
@@ -41630,7 +42123,7 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A192" s="68"/>
+      <c r="A192" s="56"/>
       <c r="B192" s="54"/>
       <c r="C192" s="54" t="s">
         <v>49</v>
@@ -41645,7 +42138,7 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A193" s="68" t="s">
+      <c r="A193" s="56" t="s">
         <v>199</v>
       </c>
       <c r="B193" s="54" t="s">
@@ -41664,7 +42157,7 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A194" s="68"/>
+      <c r="A194" s="56"/>
       <c r="B194" s="54"/>
       <c r="C194" s="54" t="s">
         <v>51</v>
@@ -41679,7 +42172,7 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A195" s="68"/>
+      <c r="A195" s="56"/>
       <c r="B195" s="54" t="s">
         <v>201</v>
       </c>
@@ -41696,13 +42189,13 @@
       </c>
     </row>
     <row r="196" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="69"/>
-      <c r="B196" s="63"/>
-      <c r="C196" s="63" t="s">
+      <c r="A196" s="57"/>
+      <c r="B196" s="55"/>
+      <c r="C196" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="D196" s="63"/>
-      <c r="E196" s="63"/>
+      <c r="D196" s="55"/>
+      <c r="E196" s="55"/>
       <c r="F196" s="42" t="s">
         <v>193</v>
       </c>
@@ -41741,12 +42234,12 @@
       <c r="A201" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="B201" s="70" t="s">
+      <c r="B201" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="C201" s="70"/>
-      <c r="D201" s="70"/>
-      <c r="E201" s="70"/>
+      <c r="C201" s="58"/>
+      <c r="D201" s="58"/>
+      <c r="E201" s="58"/>
       <c r="F201" s="22" t="s">
         <v>208</v>
       </c>
@@ -41758,12 +42251,12 @@
       <c r="A202" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="B202" s="71" t="s">
+      <c r="B202" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="C202" s="62"/>
-      <c r="D202" s="62"/>
-      <c r="E202" s="62"/>
+      <c r="C202" s="60"/>
+      <c r="D202" s="60"/>
+      <c r="E202" s="60"/>
       <c r="F202" s="38" t="s">
         <v>212</v>
       </c>
@@ -41775,12 +42268,12 @@
       <c r="A203" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B203" s="72" t="s">
+      <c r="B203" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="C203" s="73"/>
-      <c r="D203" s="73"/>
-      <c r="E203" s="74"/>
+      <c r="C203" s="62"/>
+      <c r="D203" s="62"/>
+      <c r="E203" s="63"/>
       <c r="F203" s="10" t="s">
         <v>192</v>
       </c>
@@ -41792,12 +42285,12 @@
       <c r="A204" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="B204" s="75" t="s">
+      <c r="B204" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="C204" s="63"/>
-      <c r="D204" s="63"/>
-      <c r="E204" s="63"/>
+      <c r="C204" s="55"/>
+      <c r="D204" s="55"/>
+      <c r="E204" s="55"/>
       <c r="F204" s="13" t="s">
         <v>192</v>
       </c>
@@ -41842,11 +42335,11 @@
       <c r="C209" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="D209" s="76" t="s">
+      <c r="D209" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="E209" s="76"/>
-      <c r="F209" s="76"/>
+      <c r="E209" s="65"/>
+      <c r="F209" s="65"/>
       <c r="G209" s="32"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.15">
@@ -41930,9 +42423,9 @@
       <c r="A215" s="44"/>
       <c r="B215" s="42"/>
       <c r="C215" s="42"/>
-      <c r="D215" s="63"/>
-      <c r="E215" s="63"/>
-      <c r="F215" s="63"/>
+      <c r="D215" s="55"/>
+      <c r="E215" s="55"/>
+      <c r="F215" s="55"/>
       <c r="G215" s="25"/>
     </row>
   </sheetData>
@@ -41945,11 +42438,28 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="40">
-    <mergeCell ref="D211:F211"/>
-    <mergeCell ref="D212:F212"/>
-    <mergeCell ref="D213:F213"/>
-    <mergeCell ref="D214:F214"/>
-    <mergeCell ref="D215:F215"/>
+    <mergeCell ref="B162:B167"/>
+    <mergeCell ref="F109:N109"/>
+    <mergeCell ref="B142:B149"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="B154:B161"/>
+    <mergeCell ref="B168:B171"/>
+    <mergeCell ref="C184:E184"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:E185"/>
+    <mergeCell ref="C186:E186"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:E187"/>
+    <mergeCell ref="C188:E188"/>
+    <mergeCell ref="A189:A192"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="C189:E189"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="C192:E192"/>
     <mergeCell ref="D210:F210"/>
     <mergeCell ref="A193:A196"/>
     <mergeCell ref="B193:B194"/>
@@ -41963,28 +42473,11 @@
     <mergeCell ref="B203:E203"/>
     <mergeCell ref="B204:E204"/>
     <mergeCell ref="D209:F209"/>
-    <mergeCell ref="A189:A192"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="C189:E189"/>
-    <mergeCell ref="C190:E190"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="C191:E191"/>
-    <mergeCell ref="C192:E192"/>
-    <mergeCell ref="B168:B171"/>
-    <mergeCell ref="C184:E184"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="C185:E185"/>
-    <mergeCell ref="C186:E186"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:E187"/>
-    <mergeCell ref="C188:E188"/>
-    <mergeCell ref="B162:B167"/>
-    <mergeCell ref="F109:N109"/>
-    <mergeCell ref="B142:B149"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="B154:B161"/>
+    <mergeCell ref="D211:F211"/>
+    <mergeCell ref="D212:F212"/>
+    <mergeCell ref="D213:F213"/>
+    <mergeCell ref="D214:F214"/>
+    <mergeCell ref="D215:F215"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42010,16 +42503,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="E26" sqref="E26"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+      <selection activeCell="B53" sqref="B53"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
-      <selection activeCell="B53" sqref="B53"/>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
